--- a/data/Table_7.2b_Electricity_Net_Generation__Electric_Power_Sector.xlsx
+++ b/data/Table_7.2b_Electricity_Net_Generation__Electric_Power_Sector.xlsx
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2018 Monthly Energy Review</t>
+    <t>July 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 26, 2018</t>
+    <t>Release Date: July 28, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 28, 2018</t>
+    <t>Next Update: August 26, 2020</t>
   </si>
   <si>
     <t>Table 7.2b Electricity Net Generation: Electric Power Sector</t>
@@ -72,13 +72,16 @@
     <t>Electricity Net Generation From Wind, Electric Power Sector</t>
   </si>
   <si>
-    <t>Electricity Net Generation Total, Electric Power Sector</t>
+    <t>Electricity Net Generation Total (including from sources not shown), Electric Power Sector</t>
   </si>
   <si>
     <t>(Million Kilowatthours)</t>
   </si>
   <si>
     <t>Not Available</t>
+  </si>
+  <si>
+    <t>Not Meaningful</t>
   </si>
   <si>
     <t>Annual Total</t>
@@ -488,7 +491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N556"/>
+  <dimension ref="A1:N580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -509,7 +512,7 @@
     <col min="11" max="11" width="70.554199" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="65.269775" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="64.127197" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="59.842529" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="97.404785" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -23866,16 +23869,16 @@
         <v>42736</v>
       </c>
       <c r="B541">
-        <v>114703.043</v>
+        <v>114572.021</v>
       </c>
       <c r="C541">
-        <v>1960.941</v>
+        <v>1928.942</v>
       </c>
       <c r="D541">
-        <v>82913.635</v>
+        <v>86947.028</v>
       </c>
       <c r="E541">
-        <v>351.008</v>
+        <v>349.619</v>
       </c>
       <c r="F541">
         <v>73120.612</v>
@@ -23884,25 +23887,25 @@
         <v>-435.366</v>
       </c>
       <c r="H541">
-        <v>27707.102</v>
+        <v>26479.108</v>
       </c>
       <c r="I541">
-        <v>1209.301</v>
+        <v>1189.072</v>
       </c>
       <c r="J541">
-        <v>1569.381</v>
+        <v>1596.239</v>
       </c>
       <c r="K541">
-        <v>1399.462</v>
+        <v>1406.967</v>
       </c>
       <c r="L541">
-        <v>2128.264</v>
+        <v>2298.306</v>
       </c>
       <c r="M541">
-        <v>20732.008</v>
+        <v>20780.025</v>
       </c>
       <c r="N541">
-        <v>327977.054</v>
+        <v>330858.668</v>
       </c>
     </row>
     <row r="542" spans="1:14">
@@ -23910,16 +23913,16 @@
         <v>42767</v>
       </c>
       <c r="B542">
-        <v>86179.224</v>
+        <v>86157.863</v>
       </c>
       <c r="C542">
-        <v>1493.436</v>
+        <v>1487.437</v>
       </c>
       <c r="D542">
-        <v>73522.041</v>
+        <v>75087.758</v>
       </c>
       <c r="E542">
-        <v>336.023</v>
+        <v>308.663</v>
       </c>
       <c r="F542">
         <v>63560.371</v>
@@ -23928,25 +23931,25 @@
         <v>-507.911</v>
       </c>
       <c r="H542">
-        <v>24409.07</v>
+        <v>23746.321</v>
       </c>
       <c r="I542">
-        <v>1143.475</v>
+        <v>1061.066</v>
       </c>
       <c r="J542">
-        <v>1379.832</v>
+        <v>1423.862</v>
       </c>
       <c r="K542">
-        <v>1241.317</v>
+        <v>1238.872</v>
       </c>
       <c r="L542">
-        <v>2469.118</v>
+        <v>2716.998</v>
       </c>
       <c r="M542">
-        <v>22211.327</v>
+        <v>22071.989</v>
       </c>
       <c r="N542">
-        <v>277981.263</v>
+        <v>278904.308</v>
       </c>
     </row>
     <row r="543" spans="1:14">
@@ -23954,16 +23957,16 @@
         <v>42795</v>
       </c>
       <c r="B543">
-        <v>88726.029</v>
+        <v>88687.575</v>
       </c>
       <c r="C543">
-        <v>1560.941</v>
+        <v>1525.781</v>
       </c>
       <c r="D543">
-        <v>86697.499</v>
+        <v>86901.932</v>
       </c>
       <c r="E543">
-        <v>372.727</v>
+        <v>358.322</v>
       </c>
       <c r="F543">
         <v>65093.2</v>
@@ -23972,25 +23975,25 @@
         <v>-521.035</v>
       </c>
       <c r="H543">
-        <v>30068.807</v>
+        <v>29460.347</v>
       </c>
       <c r="I543">
-        <v>1310.622</v>
+        <v>1216.031</v>
       </c>
       <c r="J543">
-        <v>1463.73</v>
+        <v>1538.297</v>
       </c>
       <c r="K543">
-        <v>1379.83</v>
+        <v>1387.185</v>
       </c>
       <c r="L543">
-        <v>4381.481</v>
+        <v>4464.441</v>
       </c>
       <c r="M543">
-        <v>26109.427</v>
+        <v>25705.326</v>
       </c>
       <c r="N543">
-        <v>307195.169</v>
+        <v>306381.821</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -23998,16 +24001,16 @@
         <v>42826</v>
       </c>
       <c r="B544">
-        <v>80921.161</v>
+        <v>80742.742</v>
       </c>
       <c r="C544">
-        <v>1198.823</v>
+        <v>1191.657</v>
       </c>
       <c r="D544">
-        <v>78474.802</v>
+        <v>80597.035</v>
       </c>
       <c r="E544">
-        <v>299.847</v>
+        <v>300.142</v>
       </c>
       <c r="F544">
         <v>56743.352</v>
@@ -24016,25 +24019,25 @@
         <v>-438.729</v>
       </c>
       <c r="H544">
-        <v>29170.253</v>
+        <v>29234.662</v>
       </c>
       <c r="I544">
-        <v>1106.614</v>
+        <v>974.667</v>
       </c>
       <c r="J544">
-        <v>1392.382</v>
+        <v>1451.28</v>
       </c>
       <c r="K544">
-        <v>1357.349</v>
+        <v>1341.221</v>
       </c>
       <c r="L544">
-        <v>4721.08</v>
+        <v>4853.397</v>
       </c>
       <c r="M544">
-        <v>25731.318</v>
+        <v>25354.869</v>
       </c>
       <c r="N544">
-        <v>281221.956</v>
+        <v>282898.628</v>
       </c>
     </row>
     <row r="545" spans="1:14">
@@ -24042,16 +24045,16 @@
         <v>42856</v>
       </c>
       <c r="B545">
-        <v>92224.178</v>
+        <v>92141.448</v>
       </c>
       <c r="C545">
-        <v>1655.08</v>
+        <v>1719.05</v>
       </c>
       <c r="D545">
-        <v>88942.406</v>
+        <v>89993.424</v>
       </c>
       <c r="E545">
-        <v>346.668</v>
+        <v>350.978</v>
       </c>
       <c r="F545">
         <v>61312.753</v>
@@ -24060,25 +24063,25 @@
         <v>-423.168</v>
       </c>
       <c r="H545">
-        <v>32014.977</v>
+        <v>32421.49</v>
       </c>
       <c r="I545">
-        <v>1197.894</v>
+        <v>977.675</v>
       </c>
       <c r="J545">
-        <v>1454.796</v>
+        <v>1545.884</v>
       </c>
       <c r="K545">
-        <v>1295.062</v>
+        <v>1301.858</v>
       </c>
       <c r="L545">
-        <v>5697.656</v>
+        <v>5725.184</v>
       </c>
       <c r="M545">
-        <v>22622.159</v>
+        <v>23046.882</v>
       </c>
       <c r="N545">
-        <v>308919.974</v>
+        <v>310703.23</v>
       </c>
     </row>
     <row r="546" spans="1:14">
@@ -24086,16 +24089,16 @@
         <v>42887</v>
       </c>
       <c r="B546">
-        <v>106998.313</v>
+        <v>106825.311</v>
       </c>
       <c r="C546">
-        <v>1762.959</v>
+        <v>1783.022</v>
       </c>
       <c r="D546">
-        <v>107927.563</v>
+        <v>108779.432</v>
       </c>
       <c r="E546">
-        <v>343.594</v>
+        <v>324.085</v>
       </c>
       <c r="F546">
         <v>67010.782</v>
@@ -24104,25 +24107,25 @@
         <v>-567.516</v>
       </c>
       <c r="H546">
-        <v>30274.871</v>
+        <v>30422.13</v>
       </c>
       <c r="I546">
-        <v>1287.718</v>
+        <v>1093.14</v>
       </c>
       <c r="J546">
-        <v>1429.79</v>
+        <v>1515.951</v>
       </c>
       <c r="K546">
-        <v>1264.744</v>
+        <v>1283.75</v>
       </c>
       <c r="L546">
-        <v>6173.774</v>
+        <v>6052.164</v>
       </c>
       <c r="M546">
-        <v>19694.366</v>
+        <v>20124.436</v>
       </c>
       <c r="N546">
-        <v>344188.108</v>
+        <v>345240.549</v>
       </c>
     </row>
     <row r="547" spans="1:14">
@@ -24130,16 +24133,16 @@
         <v>42917</v>
       </c>
       <c r="B547">
-        <v>127231.602</v>
+        <v>127018.728</v>
       </c>
       <c r="C547">
-        <v>1618.498</v>
+        <v>1690.536</v>
       </c>
       <c r="D547">
-        <v>136039.033</v>
+        <v>137825.778</v>
       </c>
       <c r="E547">
-        <v>376.588</v>
+        <v>368.719</v>
       </c>
       <c r="F547">
         <v>71314.219</v>
@@ -24148,25 +24151,25 @@
         <v>-759.494</v>
       </c>
       <c r="H547">
-        <v>25603.74</v>
+        <v>26460.2</v>
       </c>
       <c r="I547">
-        <v>1391.192</v>
+        <v>1239.284</v>
       </c>
       <c r="J547">
-        <v>1477.775</v>
+        <v>1523.84</v>
       </c>
       <c r="K547">
-        <v>1367.808</v>
+        <v>1372.704</v>
       </c>
       <c r="L547">
-        <v>5434.679</v>
+        <v>5509.197</v>
       </c>
       <c r="M547">
-        <v>15751.937</v>
+        <v>16107.853</v>
       </c>
       <c r="N547">
-        <v>387462.099</v>
+        <v>390294.005</v>
       </c>
     </row>
     <row r="548" spans="1:14">
@@ -24174,16 +24177,16 @@
         <v>42948</v>
       </c>
       <c r="B548">
-        <v>119052.426</v>
+        <v>118809.977</v>
       </c>
       <c r="C548">
-        <v>1607.915</v>
+        <v>1608.414</v>
       </c>
       <c r="D548">
-        <v>131277.507</v>
+        <v>132375.638</v>
       </c>
       <c r="E548">
-        <v>369.655</v>
+        <v>359.318</v>
       </c>
       <c r="F548">
         <v>72384.218</v>
@@ -24192,25 +24195,25 @@
         <v>-638.234</v>
       </c>
       <c r="H548">
-        <v>21115.434</v>
+        <v>21923.633</v>
       </c>
       <c r="I548">
-        <v>1358.359</v>
+        <v>1271.289</v>
       </c>
       <c r="J548">
-        <v>1489.695</v>
+        <v>1523.519</v>
       </c>
       <c r="K548">
-        <v>1357.042</v>
+        <v>1362.996</v>
       </c>
       <c r="L548">
-        <v>5334.251</v>
+        <v>5310.677</v>
       </c>
       <c r="M548">
-        <v>13077.951</v>
+        <v>13869.312</v>
       </c>
       <c r="N548">
-        <v>368413.125</v>
+        <v>370794.423</v>
       </c>
     </row>
     <row r="549" spans="1:14">
@@ -24218,16 +24221,16 @@
         <v>42979</v>
       </c>
       <c r="B549">
-        <v>97725.582</v>
+        <v>97560.379</v>
       </c>
       <c r="C549">
-        <v>1568.156</v>
+        <v>1549.034</v>
       </c>
       <c r="D549">
-        <v>109084.162</v>
+        <v>110156.311</v>
       </c>
       <c r="E549">
-        <v>332.852</v>
+        <v>345.482</v>
       </c>
       <c r="F549">
         <v>68097.918</v>
@@ -24236,25 +24239,25 @@
         <v>-606.081</v>
       </c>
       <c r="H549">
-        <v>18852.07</v>
+        <v>19062.768</v>
       </c>
       <c r="I549">
-        <v>1187.29</v>
+        <v>1087.665</v>
       </c>
       <c r="J549">
-        <v>1386.139</v>
+        <v>1428.084</v>
       </c>
       <c r="K549">
-        <v>1325.436</v>
+        <v>1331.503</v>
       </c>
       <c r="L549">
-        <v>5102.838</v>
+        <v>5006.581</v>
       </c>
       <c r="M549">
-        <v>17253.301</v>
+        <v>17896.146</v>
       </c>
       <c r="N549">
-        <v>321859.058</v>
+        <v>323472.188</v>
       </c>
     </row>
     <row r="550" spans="1:14">
@@ -24262,16 +24265,16 @@
         <v>43009</v>
       </c>
       <c r="B550">
-        <v>89383.843</v>
+        <v>89114.281</v>
       </c>
       <c r="C550">
-        <v>1444.114</v>
+        <v>1443.536</v>
       </c>
       <c r="D550">
-        <v>99152.396</v>
+        <v>98799.989</v>
       </c>
       <c r="E550">
-        <v>315.758</v>
+        <v>326.504</v>
       </c>
       <c r="F550">
         <v>65994.785</v>
@@ -24280,25 +24283,25 @@
         <v>-462.982</v>
       </c>
       <c r="H550">
-        <v>17096.104</v>
+        <v>17606.438</v>
       </c>
       <c r="I550">
-        <v>1306.399</v>
+        <v>1083.473</v>
       </c>
       <c r="J550">
-        <v>1411.789</v>
+        <v>1446.876</v>
       </c>
       <c r="K550">
-        <v>1260.904</v>
+        <v>1214.124</v>
       </c>
       <c r="L550">
-        <v>4770.833</v>
+        <v>4606.019</v>
       </c>
       <c r="M550">
-        <v>24799.099</v>
+        <v>24345.655</v>
       </c>
       <c r="N550">
-        <v>307031.962</v>
+        <v>306084.933</v>
       </c>
     </row>
     <row r="551" spans="1:14">
@@ -24306,16 +24309,16 @@
         <v>43040</v>
       </c>
       <c r="B551">
-        <v>90489.755</v>
+        <v>90347.26</v>
       </c>
       <c r="C551">
-        <v>1495.037</v>
+        <v>1554.103</v>
       </c>
       <c r="D551">
-        <v>84628.197</v>
+        <v>86834.472</v>
       </c>
       <c r="E551">
-        <v>364.335</v>
+        <v>352.036</v>
       </c>
       <c r="F551">
         <v>66617.853</v>
@@ -24324,25 +24327,25 @@
         <v>-478.107</v>
       </c>
       <c r="H551">
-        <v>19705.596</v>
+        <v>19757.893</v>
       </c>
       <c r="I551">
-        <v>1271.792</v>
+        <v>1162.386</v>
       </c>
       <c r="J551">
-        <v>1435.436</v>
+        <v>1507.679</v>
       </c>
       <c r="K551">
-        <v>1334.106</v>
+        <v>1304.684</v>
       </c>
       <c r="L551">
-        <v>3085.358</v>
+        <v>3174.127</v>
       </c>
       <c r="M551">
-        <v>23299.731</v>
+        <v>22592.338</v>
       </c>
       <c r="N551">
-        <v>293827.93</v>
+        <v>295314.661</v>
       </c>
     </row>
     <row r="552" spans="1:14">
@@ -24350,16 +24353,16 @@
         <v>43070</v>
       </c>
       <c r="B552">
-        <v>105857.186</v>
+        <v>105860.346</v>
       </c>
       <c r="C552">
-        <v>2398.392</v>
+        <v>2557.876</v>
       </c>
       <c r="D552">
-        <v>97505.546</v>
+        <v>102454.699</v>
       </c>
       <c r="E552">
-        <v>368.001</v>
+        <v>382.567</v>
       </c>
       <c r="F552">
         <v>73699.572</v>
@@ -24368,25 +24371,25 @@
         <v>-655.925</v>
       </c>
       <c r="H552">
-        <v>22370.233</v>
+        <v>22135.92</v>
       </c>
       <c r="I552">
-        <v>1335.244</v>
+        <v>1285.544</v>
       </c>
       <c r="J552">
-        <v>1495.194</v>
+        <v>1582.213</v>
       </c>
       <c r="K552">
-        <v>1392.982</v>
+        <v>1380.91</v>
       </c>
       <c r="L552">
-        <v>3026.967</v>
+        <v>3006.449</v>
       </c>
       <c r="M552">
-        <v>22756.811</v>
+        <v>22179.191</v>
       </c>
       <c r="N552">
-        <v>332179.957</v>
+        <v>336505.316</v>
       </c>
     </row>
     <row r="553" spans="1:14">
@@ -24394,16 +24397,16 @@
         <v>43101</v>
       </c>
       <c r="B553">
-        <v>117897.706</v>
+        <v>118557.188</v>
       </c>
       <c r="C553">
-        <v>5977.846</v>
+        <v>6348.033</v>
       </c>
       <c r="D553">
-        <v>100993.611</v>
+        <v>101468.844</v>
       </c>
       <c r="E553">
-        <v>329.995</v>
+        <v>344.196</v>
       </c>
       <c r="F553">
         <v>74649.04</v>
@@ -24412,25 +24415,25 @@
         <v>-547.331</v>
       </c>
       <c r="H553">
-        <v>25286.232</v>
+        <v>24962.02</v>
       </c>
       <c r="I553">
-        <v>1379.363</v>
+        <v>1320.475</v>
       </c>
       <c r="J553">
-        <v>1484.049</v>
+        <v>1531.897</v>
       </c>
       <c r="K553">
-        <v>1373.357</v>
+        <v>1341.307</v>
       </c>
       <c r="L553">
-        <v>3229.416</v>
+        <v>3287.842</v>
       </c>
       <c r="M553">
-        <v>26811.37</v>
+        <v>25570.053</v>
       </c>
       <c r="N553">
-        <v>359483.369</v>
+        <v>359448.775</v>
       </c>
     </row>
     <row r="554" spans="1:14">
@@ -24438,16 +24441,16 @@
         <v>43132</v>
       </c>
       <c r="B554">
-        <v>81358.413</v>
+        <v>81399.063</v>
       </c>
       <c r="C554">
-        <v>1413.457</v>
+        <v>1450.745</v>
       </c>
       <c r="D554">
-        <v>88658.56</v>
+        <v>90701.945</v>
       </c>
       <c r="E554">
-        <v>330.13</v>
+        <v>336.999</v>
       </c>
       <c r="F554">
         <v>64790.03</v>
@@ -24456,25 +24459,25 @@
         <v>-315.144</v>
       </c>
       <c r="H554">
-        <v>25457.147</v>
+        <v>24793.71</v>
       </c>
       <c r="I554">
-        <v>1214.681</v>
+        <v>1137.46</v>
       </c>
       <c r="J554">
-        <v>1428.548</v>
+        <v>1455.156</v>
       </c>
       <c r="K554">
-        <v>1302.559</v>
+        <v>1274.093</v>
       </c>
       <c r="L554">
-        <v>3993.676</v>
+        <v>3862.71</v>
       </c>
       <c r="M554">
-        <v>23914.032</v>
+        <v>23165.02</v>
       </c>
       <c r="N554">
-        <v>294131.328</v>
+        <v>294633.366</v>
       </c>
     </row>
     <row r="555" spans="1:14">
@@ -24482,16 +24485,16 @@
         <v>43160</v>
       </c>
       <c r="B555">
-        <v>79984.289</v>
+        <v>79982.641</v>
       </c>
       <c r="C555">
-        <v>1304.351</v>
+        <v>1368.409</v>
       </c>
       <c r="D555">
-        <v>96117.881</v>
+        <v>98596.73</v>
       </c>
       <c r="E555">
-        <v>353.946</v>
+        <v>347.593</v>
       </c>
       <c r="F555">
         <v>67032.656</v>
@@ -24500,25 +24503,25 @@
         <v>-489.962</v>
       </c>
       <c r="H555">
-        <v>25739.727</v>
+        <v>25752.148</v>
       </c>
       <c r="I555">
-        <v>1248.428</v>
+        <v>1199.898</v>
       </c>
       <c r="J555">
-        <v>1518.554</v>
+        <v>1533.978</v>
       </c>
       <c r="K555">
-        <v>1384.92</v>
+        <v>1366.753</v>
       </c>
       <c r="L555">
-        <v>5046.922</v>
+        <v>5009.114</v>
       </c>
       <c r="M555">
-        <v>27249.335</v>
+        <v>26435.019</v>
       </c>
       <c r="N555">
-        <v>307103.959</v>
+        <v>308746.646</v>
       </c>
     </row>
     <row r="556" spans="1:14">
@@ -24526,43 +24529,1099 @@
         <v>43191</v>
       </c>
       <c r="B556">
-        <v>72868.759</v>
+        <v>72787.438</v>
       </c>
       <c r="C556">
-        <v>1338.026</v>
+        <v>1446.247</v>
       </c>
       <c r="D556">
-        <v>92200.906</v>
+        <v>90614.381</v>
       </c>
       <c r="E556">
-        <v>333.928</v>
+        <v>354.112</v>
       </c>
       <c r="F556">
-        <v>59087.001</v>
+        <v>59133.155</v>
       </c>
       <c r="G556">
         <v>-376.898</v>
       </c>
       <c r="H556">
-        <v>27468.856</v>
+        <v>27989.979</v>
       </c>
       <c r="I556">
-        <v>920.079</v>
+        <v>948.111</v>
       </c>
       <c r="J556">
-        <v>1430.5</v>
+        <v>1450.111</v>
       </c>
       <c r="K556">
-        <v>1211.653</v>
+        <v>1187.937</v>
       </c>
       <c r="L556">
-        <v>6045.113</v>
+        <v>6002.399</v>
       </c>
       <c r="M556">
-        <v>26733.147</v>
+        <v>26406.191</v>
       </c>
       <c r="N556">
-        <v>289832.248</v>
+        <v>288509.488</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14">
+      <c r="A557" s="6">
+        <v>43221</v>
+      </c>
+      <c r="B557">
+        <v>84633.935</v>
+      </c>
+      <c r="C557">
+        <v>1452.891</v>
+      </c>
+      <c r="D557">
+        <v>107013.532</v>
+      </c>
+      <c r="E557">
+        <v>389.275</v>
+      </c>
+      <c r="F557">
+        <v>67320.248</v>
+      </c>
+      <c r="G557">
+        <v>-390.083</v>
+      </c>
+      <c r="H557">
+        <v>30318.598</v>
+      </c>
+      <c r="I557">
+        <v>1037.627</v>
+      </c>
+      <c r="J557">
+        <v>1455.58</v>
+      </c>
+      <c r="K557">
+        <v>1382.62</v>
+      </c>
+      <c r="L557">
+        <v>6787.724</v>
+      </c>
+      <c r="M557">
+        <v>23931.575</v>
+      </c>
+      <c r="N557">
+        <v>325904.622</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14">
+      <c r="A558" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B558">
+        <v>100893.712</v>
+      </c>
+      <c r="C558">
+        <v>1795.019</v>
+      </c>
+      <c r="D558">
+        <v>122171.884</v>
+      </c>
+      <c r="E558">
+        <v>316.182</v>
+      </c>
+      <c r="F558">
+        <v>69687.556</v>
+      </c>
+      <c r="G558">
+        <v>-433.324</v>
+      </c>
+      <c r="H558">
+        <v>27502.186</v>
+      </c>
+      <c r="I558">
+        <v>1168.395</v>
+      </c>
+      <c r="J558">
+        <v>1460.067</v>
+      </c>
+      <c r="K558">
+        <v>1299.835</v>
+      </c>
+      <c r="L558">
+        <v>7347.485</v>
+      </c>
+      <c r="M558">
+        <v>24682.764</v>
+      </c>
+      <c r="N558">
+        <v>358523.267</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14">
+      <c r="A559" s="6">
+        <v>43282</v>
+      </c>
+      <c r="B559">
+        <v>114748.806</v>
+      </c>
+      <c r="C559">
+        <v>1783.69</v>
+      </c>
+      <c r="D559">
+        <v>155264.421</v>
+      </c>
+      <c r="E559">
+        <v>358.95</v>
+      </c>
+      <c r="F559">
+        <v>72456.009</v>
+      </c>
+      <c r="G559">
+        <v>-644.469</v>
+      </c>
+      <c r="H559">
+        <v>25002.926</v>
+      </c>
+      <c r="I559">
+        <v>1270.82</v>
+      </c>
+      <c r="J559">
+        <v>1480.133</v>
+      </c>
+      <c r="K559">
+        <v>1369.611</v>
+      </c>
+      <c r="L559">
+        <v>6691.307</v>
+      </c>
+      <c r="M559">
+        <v>16431.642</v>
+      </c>
+      <c r="N559">
+        <v>396854.016</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14">
+      <c r="A560" s="6">
+        <v>43313</v>
+      </c>
+      <c r="B560">
+        <v>114516.287</v>
+      </c>
+      <c r="C560">
+        <v>1828.892</v>
+      </c>
+      <c r="D560">
+        <v>152150.372</v>
+      </c>
+      <c r="E560">
+        <v>392.472</v>
+      </c>
+      <c r="F560">
+        <v>72282.467</v>
+      </c>
+      <c r="G560">
+        <v>-747.235</v>
+      </c>
+      <c r="H560">
+        <v>21908.294</v>
+      </c>
+      <c r="I560">
+        <v>1216.854</v>
+      </c>
+      <c r="J560">
+        <v>1482.939</v>
+      </c>
+      <c r="K560">
+        <v>1367.055</v>
+      </c>
+      <c r="L560">
+        <v>6633.551</v>
+      </c>
+      <c r="M560">
+        <v>19830.204</v>
+      </c>
+      <c r="N560">
+        <v>393497.248</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14">
+      <c r="A561" s="6">
+        <v>43344</v>
+      </c>
+      <c r="B561">
+        <v>95961.853</v>
+      </c>
+      <c r="C561">
+        <v>1761.577</v>
+      </c>
+      <c r="D561">
+        <v>132992.127</v>
+      </c>
+      <c r="E561">
+        <v>331.718</v>
+      </c>
+      <c r="F561">
+        <v>64724.753</v>
+      </c>
+      <c r="G561">
+        <v>-603.113</v>
+      </c>
+      <c r="H561">
+        <v>19059.726</v>
+      </c>
+      <c r="I561">
+        <v>1044.336</v>
+      </c>
+      <c r="J561">
+        <v>1341.11</v>
+      </c>
+      <c r="K561">
+        <v>1327.908</v>
+      </c>
+      <c r="L561">
+        <v>5910.902</v>
+      </c>
+      <c r="M561">
+        <v>18501.795</v>
+      </c>
+      <c r="N561">
+        <v>342916.913</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14">
+      <c r="A562" s="6">
+        <v>43374</v>
+      </c>
+      <c r="B562">
+        <v>86736.177</v>
+      </c>
+      <c r="C562">
+        <v>1472.56</v>
+      </c>
+      <c r="D562">
+        <v>114532.683</v>
+      </c>
+      <c r="E562">
+        <v>254.326</v>
+      </c>
+      <c r="F562">
+        <v>59396.905</v>
+      </c>
+      <c r="G562">
+        <v>-492.202</v>
+      </c>
+      <c r="H562">
+        <v>19426.42</v>
+      </c>
+      <c r="I562">
+        <v>989.055</v>
+      </c>
+      <c r="J562">
+        <v>1465.078</v>
+      </c>
+      <c r="K562">
+        <v>1273.09</v>
+      </c>
+      <c r="L562">
+        <v>4926.267</v>
+      </c>
+      <c r="M562">
+        <v>21169.635</v>
+      </c>
+      <c r="N562">
+        <v>311749.733</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14">
+      <c r="A563" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B563">
+        <v>92257.715</v>
+      </c>
+      <c r="C563">
+        <v>1564.905</v>
+      </c>
+      <c r="D563">
+        <v>99418.95</v>
+      </c>
+      <c r="E563">
+        <v>311.035</v>
+      </c>
+      <c r="F563">
+        <v>63954.37</v>
+      </c>
+      <c r="G563">
+        <v>-342.707</v>
+      </c>
+      <c r="H563">
+        <v>21780.771</v>
+      </c>
+      <c r="I563">
+        <v>1030.032</v>
+      </c>
+      <c r="J563">
+        <v>1453.472</v>
+      </c>
+      <c r="K563">
+        <v>1330.844</v>
+      </c>
+      <c r="L563">
+        <v>3711.003</v>
+      </c>
+      <c r="M563">
+        <v>21991.019</v>
+      </c>
+      <c r="N563">
+        <v>309062.459</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14">
+      <c r="A564" s="6">
+        <v>43435</v>
+      </c>
+      <c r="B564">
+        <v>99698.196</v>
+      </c>
+      <c r="C564">
+        <v>1655.497</v>
+      </c>
+      <c r="D564">
+        <v>100896.232</v>
+      </c>
+      <c r="E564">
+        <v>349.207</v>
+      </c>
+      <c r="F564">
+        <v>71657.288</v>
+      </c>
+      <c r="G564">
+        <v>-522.071</v>
+      </c>
+      <c r="H564">
+        <v>22650.886</v>
+      </c>
+      <c r="I564">
+        <v>1021.682</v>
+      </c>
+      <c r="J564">
+        <v>1513.703</v>
+      </c>
+      <c r="K564">
+        <v>1412.639</v>
+      </c>
+      <c r="L564">
+        <v>3082.523</v>
+      </c>
+      <c r="M564">
+        <v>24281.509</v>
+      </c>
+      <c r="N564">
+        <v>328320.044</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14">
+      <c r="A565" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B565">
+        <v>100367.98</v>
+      </c>
+      <c r="C565">
+        <v>2087.589</v>
+      </c>
+      <c r="D565">
+        <v>109910.436</v>
+      </c>
+      <c r="E565">
+        <v>380.7</v>
+      </c>
+      <c r="F565">
+        <v>73700.844</v>
+      </c>
+      <c r="G565">
+        <v>-323.009</v>
+      </c>
+      <c r="H565">
+        <v>24088.14</v>
+      </c>
+      <c r="I565">
+        <v>1232.848</v>
+      </c>
+      <c r="J565">
+        <v>1351.411</v>
+      </c>
+      <c r="K565">
+        <v>1379.499</v>
+      </c>
+      <c r="L565">
+        <v>3618.881</v>
+      </c>
+      <c r="M565">
+        <v>25096.495</v>
+      </c>
+      <c r="N565">
+        <v>343563.598</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14">
+      <c r="A566" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B566">
+        <v>79537.33</v>
+      </c>
+      <c r="C566">
+        <v>1461.173</v>
+      </c>
+      <c r="D566">
+        <v>102843.287</v>
+      </c>
+      <c r="E566">
+        <v>376.775</v>
+      </c>
+      <c r="F566">
+        <v>64714.894</v>
+      </c>
+      <c r="G566">
+        <v>-388.719</v>
+      </c>
+      <c r="H566">
+        <v>21722.34</v>
+      </c>
+      <c r="I566">
+        <v>1069.784</v>
+      </c>
+      <c r="J566">
+        <v>1221.952</v>
+      </c>
+      <c r="K566">
+        <v>1267.339</v>
+      </c>
+      <c r="L566">
+        <v>3791.079</v>
+      </c>
+      <c r="M566">
+        <v>22976.711</v>
+      </c>
+      <c r="N566">
+        <v>301173.122</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14">
+      <c r="A567" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B567">
+        <v>77958.957</v>
+      </c>
+      <c r="C567">
+        <v>1372.037</v>
+      </c>
+      <c r="D567">
+        <v>104339.864</v>
+      </c>
+      <c r="E567">
+        <v>380.975</v>
+      </c>
+      <c r="F567">
+        <v>65079.691</v>
+      </c>
+      <c r="G567">
+        <v>-408.942</v>
+      </c>
+      <c r="H567">
+        <v>25424.952</v>
+      </c>
+      <c r="I567">
+        <v>996.722</v>
+      </c>
+      <c r="J567">
+        <v>1328.693</v>
+      </c>
+      <c r="K567">
+        <v>1392.847</v>
+      </c>
+      <c r="L567">
+        <v>5852.109</v>
+      </c>
+      <c r="M567">
+        <v>26089.828</v>
+      </c>
+      <c r="N567">
+        <v>310421.335</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14">
+      <c r="A568" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B568">
+        <v>59489.949</v>
+      </c>
+      <c r="C568">
+        <v>1137.654</v>
+      </c>
+      <c r="D568">
+        <v>94711.986</v>
+      </c>
+      <c r="E568">
+        <v>338.161</v>
+      </c>
+      <c r="F568">
+        <v>60580.927</v>
+      </c>
+      <c r="G568">
+        <v>-103.221</v>
+      </c>
+      <c r="H568">
+        <v>25369.322</v>
+      </c>
+      <c r="I568">
+        <v>872.99</v>
+      </c>
+      <c r="J568">
+        <v>1235.095</v>
+      </c>
+      <c r="K568">
+        <v>1212.083</v>
+      </c>
+      <c r="L568">
+        <v>6770.965</v>
+      </c>
+      <c r="M568">
+        <v>29680.707</v>
+      </c>
+      <c r="N568">
+        <v>281886.171</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14">
+      <c r="A569" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B569">
+        <v>71363.731</v>
+      </c>
+      <c r="C569">
+        <v>1595.852</v>
+      </c>
+      <c r="D569">
+        <v>107763.689</v>
+      </c>
+      <c r="E569">
+        <v>337.871</v>
+      </c>
+      <c r="F569">
+        <v>67123.546</v>
+      </c>
+      <c r="G569">
+        <v>-368.281</v>
+      </c>
+      <c r="H569">
+        <v>29933.337</v>
+      </c>
+      <c r="I569">
+        <v>1170.449</v>
+      </c>
+      <c r="J569">
+        <v>1333.388</v>
+      </c>
+      <c r="K569">
+        <v>1309.781</v>
+      </c>
+      <c r="L569">
+        <v>7122.737</v>
+      </c>
+      <c r="M569">
+        <v>25947.958</v>
+      </c>
+      <c r="N569">
+        <v>315310.145</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14">
+      <c r="A570" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B570">
+        <v>78091.566</v>
+      </c>
+      <c r="C570">
+        <v>1434.813</v>
+      </c>
+      <c r="D570">
+        <v>128380.81</v>
+      </c>
+      <c r="E570">
+        <v>347.971</v>
+      </c>
+      <c r="F570">
+        <v>68804.879</v>
+      </c>
+      <c r="G570">
+        <v>-385.296</v>
+      </c>
+      <c r="H570">
+        <v>26351.084</v>
+      </c>
+      <c r="I570">
+        <v>1079.441</v>
+      </c>
+      <c r="J570">
+        <v>1324.704</v>
+      </c>
+      <c r="K570">
+        <v>1328.394</v>
+      </c>
+      <c r="L570">
+        <v>7930.351</v>
+      </c>
+      <c r="M570">
+        <v>22924.347</v>
+      </c>
+      <c r="N570">
+        <v>338271.801</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14">
+      <c r="A571" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B571">
+        <v>100394.294</v>
+      </c>
+      <c r="C571" t="s">
+        <v>21</v>
+      </c>
+      <c r="D571">
+        <v>164973.969</v>
+      </c>
+      <c r="E571">
+        <v>408.456</v>
+      </c>
+      <c r="F571">
+        <v>72198.595</v>
+      </c>
+      <c r="G571">
+        <v>-622.347</v>
+      </c>
+      <c r="H571">
+        <v>23619.236</v>
+      </c>
+      <c r="I571">
+        <v>1198.83</v>
+      </c>
+      <c r="J571">
+        <v>1361.957</v>
+      </c>
+      <c r="K571">
+        <v>1378.239</v>
+      </c>
+      <c r="L571">
+        <v>8089.336</v>
+      </c>
+      <c r="M571">
+        <v>22003.849</v>
+      </c>
+      <c r="N571">
+        <v>397300.719</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14">
+      <c r="A572" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B572">
+        <v>93604.286</v>
+      </c>
+      <c r="C572">
+        <v>1664.843</v>
+      </c>
+      <c r="D572">
+        <v>166965.561</v>
+      </c>
+      <c r="E572">
+        <v>404.409</v>
+      </c>
+      <c r="F572">
+        <v>71910.684</v>
+      </c>
+      <c r="G572">
+        <v>-579.012</v>
+      </c>
+      <c r="H572">
+        <v>20937.624</v>
+      </c>
+      <c r="I572">
+        <v>1301.293</v>
+      </c>
+      <c r="J572">
+        <v>1368.199</v>
+      </c>
+      <c r="K572">
+        <v>1378.732</v>
+      </c>
+      <c r="L572">
+        <v>7811.902</v>
+      </c>
+      <c r="M572">
+        <v>19851.611</v>
+      </c>
+      <c r="N572">
+        <v>387315.136</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14">
+      <c r="A573" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B573">
+        <v>85372.512</v>
+      </c>
+      <c r="C573">
+        <v>1474.006</v>
+      </c>
+      <c r="D573">
+        <v>141808.317</v>
+      </c>
+      <c r="E573">
+        <v>358.189</v>
+      </c>
+      <c r="F573">
+        <v>66063.58</v>
+      </c>
+      <c r="G573">
+        <v>-671.214</v>
+      </c>
+      <c r="H573">
+        <v>16230.955</v>
+      </c>
+      <c r="I573">
+        <v>1120.73</v>
+      </c>
+      <c r="J573">
+        <v>1288.797</v>
+      </c>
+      <c r="K573">
+        <v>1354.93</v>
+      </c>
+      <c r="L573">
+        <v>6688.093</v>
+      </c>
+      <c r="M573">
+        <v>24364.171</v>
+      </c>
+      <c r="N573">
+        <v>346091.663</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14">
+      <c r="A574" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B574">
+        <v>66301.234</v>
+      </c>
+      <c r="C574">
+        <v>1069.388</v>
+      </c>
+      <c r="D574">
+        <v>124805.276</v>
+      </c>
+      <c r="E574">
+        <v>227.294</v>
+      </c>
+      <c r="F574">
+        <v>62032.622</v>
+      </c>
+      <c r="G574">
+        <v>-372.614</v>
+      </c>
+      <c r="H574">
+        <v>16196.784</v>
+      </c>
+      <c r="I574">
+        <v>956.564</v>
+      </c>
+      <c r="J574">
+        <v>1325.66</v>
+      </c>
+      <c r="K574">
+        <v>1238.793</v>
+      </c>
+      <c r="L574">
+        <v>6076.734</v>
+      </c>
+      <c r="M574">
+        <v>28110.807</v>
+      </c>
+      <c r="N574">
+        <v>308599.375</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14">
+      <c r="A575" s="6">
+        <v>43770</v>
+      </c>
+      <c r="B575">
+        <v>75009.676</v>
+      </c>
+      <c r="C575">
+        <v>1157.559</v>
+      </c>
+      <c r="D575">
+        <v>108496.891</v>
+      </c>
+      <c r="E575">
+        <v>370.854</v>
+      </c>
+      <c r="F575">
+        <v>64125.425</v>
+      </c>
+      <c r="G575">
+        <v>-508.775</v>
+      </c>
+      <c r="H575">
+        <v>20414.273</v>
+      </c>
+      <c r="I575">
+        <v>912.102</v>
+      </c>
+      <c r="J575">
+        <v>1262.054</v>
+      </c>
+      <c r="K575">
+        <v>1069.506</v>
+      </c>
+      <c r="L575">
+        <v>4334.618</v>
+      </c>
+      <c r="M575">
+        <v>25579.935</v>
+      </c>
+      <c r="N575">
+        <v>302845.181</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14">
+      <c r="A576" s="6">
+        <v>43800</v>
+      </c>
+      <c r="B576">
+        <v>72015.064</v>
+      </c>
+      <c r="C576">
+        <v>1276.121</v>
+      </c>
+      <c r="D576">
+        <v>119733.639</v>
+      </c>
+      <c r="E576">
+        <v>374.126</v>
+      </c>
+      <c r="F576">
+        <v>73073.575</v>
+      </c>
+      <c r="G576">
+        <v>-529.314</v>
+      </c>
+      <c r="H576">
+        <v>22088.646</v>
+      </c>
+      <c r="I576">
+        <v>1100.428</v>
+      </c>
+      <c r="J576">
+        <v>1339.054</v>
+      </c>
+      <c r="K576">
+        <v>1258.69</v>
+      </c>
+      <c r="L576">
+        <v>3460.491</v>
+      </c>
+      <c r="M576">
+        <v>27158.185</v>
+      </c>
+      <c r="N576">
+        <v>323002.805</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14">
+      <c r="A577" s="6">
+        <v>43831</v>
+      </c>
+      <c r="B577">
+        <v>64610.252</v>
+      </c>
+      <c r="C577">
+        <v>1523.651</v>
+      </c>
+      <c r="D577">
+        <v>123171.097</v>
+      </c>
+      <c r="E577">
+        <v>386.809</v>
+      </c>
+      <c r="F577">
+        <v>74204.038</v>
+      </c>
+      <c r="G577">
+        <v>-406.027</v>
+      </c>
+      <c r="H577">
+        <v>24167.386</v>
+      </c>
+      <c r="I577">
+        <v>1055.703</v>
+      </c>
+      <c r="J577">
+        <v>1359.442</v>
+      </c>
+      <c r="K577">
+        <v>1219.187</v>
+      </c>
+      <c r="L577">
+        <v>4516.142</v>
+      </c>
+      <c r="M577">
+        <v>28377.874</v>
+      </c>
+      <c r="N577">
+        <v>324838.902</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14">
+      <c r="A578" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B578">
+        <v>55545.877</v>
+      </c>
+      <c r="C578">
+        <v>1116.236</v>
+      </c>
+      <c r="D578">
+        <v>117152.405</v>
+      </c>
+      <c r="E578">
+        <v>397.204</v>
+      </c>
+      <c r="F578">
+        <v>65950.342</v>
+      </c>
+      <c r="G578">
+        <v>-246.677</v>
+      </c>
+      <c r="H578">
+        <v>24959.944</v>
+      </c>
+      <c r="I578">
+        <v>1022.102</v>
+      </c>
+      <c r="J578">
+        <v>1228.073</v>
+      </c>
+      <c r="K578">
+        <v>1114.083</v>
+      </c>
+      <c r="L578">
+        <v>5605.628</v>
+      </c>
+      <c r="M578">
+        <v>29208.033</v>
+      </c>
+      <c r="N578">
+        <v>303641.172</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14">
+      <c r="A579" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B579">
+        <v>50081.922</v>
+      </c>
+      <c r="C579">
+        <v>1328.979</v>
+      </c>
+      <c r="D579">
+        <v>114699.354</v>
+      </c>
+      <c r="E579">
+        <v>313.172</v>
+      </c>
+      <c r="F579">
+        <v>63997.21</v>
+      </c>
+      <c r="G579">
+        <v>-353.064</v>
+      </c>
+      <c r="H579">
+        <v>22148.799</v>
+      </c>
+      <c r="I579">
+        <v>988.231</v>
+      </c>
+      <c r="J579">
+        <v>1371.801</v>
+      </c>
+      <c r="K579">
+        <v>1446.177</v>
+      </c>
+      <c r="L579">
+        <v>6258.436</v>
+      </c>
+      <c r="M579">
+        <v>29456.093</v>
+      </c>
+      <c r="N579">
+        <v>292398.019</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14">
+      <c r="A580" s="6">
+        <v>43922</v>
+      </c>
+      <c r="B580">
+        <v>40125.05</v>
+      </c>
+      <c r="C580">
+        <v>1189.069</v>
+      </c>
+      <c r="D580">
+        <v>100210.868</v>
+      </c>
+      <c r="E580">
+        <v>148.128</v>
+      </c>
+      <c r="F580">
+        <v>59170.016</v>
+      </c>
+      <c r="G580">
+        <v>-325.03</v>
+      </c>
+      <c r="H580">
+        <v>20650.695</v>
+      </c>
+      <c r="I580">
+        <v>844.924</v>
+      </c>
+      <c r="J580">
+        <v>1299.332</v>
+      </c>
+      <c r="K580">
+        <v>1315.84</v>
+      </c>
+      <c r="L580">
+        <v>7938.053</v>
+      </c>
+      <c r="M580">
+        <v>29506.153</v>
+      </c>
+      <c r="N580">
+        <v>262706.184</v>
       </c>
     </row>
   </sheetData>
@@ -24589,7 +25648,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -24610,7 +25669,7 @@
     <col min="11" max="11" width="70.554199" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="65.269775" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="64.127197" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="59.842529" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="97.404785" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -24646,7 +25705,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -27727,16 +28786,16 @@
         <v>2017</v>
       </c>
       <c r="B81">
-        <v>1199492.344</v>
+        <v>1197837.931</v>
       </c>
       <c r="C81">
-        <v>19764.292</v>
+        <v>20039.388</v>
       </c>
       <c r="D81">
-        <v>1176164.786</v>
+        <v>1196753.497</v>
       </c>
       <c r="E81">
-        <v>4177.058</v>
+        <v>4126.438</v>
       </c>
       <c r="F81">
         <v>804949.635</v>
@@ -27745,25 +28804,113 @@
         <v>-6494.548</v>
       </c>
       <c r="H81">
-        <v>298388.257</v>
+        <v>298710.91</v>
       </c>
       <c r="I81">
-        <v>15105.902</v>
+        <v>13641.291</v>
       </c>
       <c r="J81">
-        <v>17385.937</v>
+        <v>18083.722</v>
       </c>
       <c r="K81">
-        <v>15976.041</v>
+        <v>15926.774</v>
       </c>
       <c r="L81">
-        <v>52326.299</v>
+        <v>52723.54</v>
       </c>
       <c r="M81">
-        <v>254039.435</v>
+        <v>254074.023</v>
       </c>
       <c r="N81">
-        <v>3858257.654</v>
+        <v>3877452.73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B82">
+        <v>1142173.011</v>
+      </c>
+      <c r="C82">
+        <v>23928.466</v>
+      </c>
+      <c r="D82">
+        <v>1365822.102</v>
+      </c>
+      <c r="E82">
+        <v>4086.063</v>
+      </c>
+      <c r="F82">
+        <v>807084.477</v>
+      </c>
+      <c r="G82">
+        <v>-5904.539</v>
+      </c>
+      <c r="H82">
+        <v>291147.664</v>
+      </c>
+      <c r="I82">
+        <v>13384.747</v>
+      </c>
+      <c r="J82">
+        <v>17623.226</v>
+      </c>
+      <c r="K82">
+        <v>15933.692</v>
+      </c>
+      <c r="L82">
+        <v>63252.827</v>
+      </c>
+      <c r="M82">
+        <v>272396.428</v>
+      </c>
+      <c r="N82">
+        <v>4018166.577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="7">
+        <v>2019</v>
+      </c>
+      <c r="B83">
+        <v>959506.578</v>
+      </c>
+      <c r="C83">
+        <v>17347.943</v>
+      </c>
+      <c r="D83">
+        <v>1474733.725</v>
+      </c>
+      <c r="E83">
+        <v>4305.782</v>
+      </c>
+      <c r="F83">
+        <v>809409.262</v>
+      </c>
+      <c r="G83">
+        <v>-5260.744</v>
+      </c>
+      <c r="H83">
+        <v>272376.692</v>
+      </c>
+      <c r="I83">
+        <v>13012.182</v>
+      </c>
+      <c r="J83">
+        <v>15740.962</v>
+      </c>
+      <c r="K83">
+        <v>15568.833</v>
+      </c>
+      <c r="L83">
+        <v>71547.296</v>
+      </c>
+      <c r="M83">
+        <v>299784.604</v>
+      </c>
+      <c r="N83">
+        <v>3955781.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/Table_7.2b_Electricity_Net_Generation__Electric_Power_Sector.xlsx
+++ b/data/Table_7.2b_Electricity_Net_Generation__Electric_Power_Sector.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>July 2020 Monthly Energy Review</t>
+    <t>August 2020 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: July 28, 2020</t>
+    <t>Release Date: August 26, 2020</t>
   </si>
   <si>
-    <t>Next Update: August 26, 2020</t>
+    <t>Next Update: September 24, 2020</t>
   </si>
   <si>
     <t>Table 7.2b Electricity Net Generation: Electric Power Sector</t>
@@ -491,7 +491,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N580"/>
+  <dimension ref="A1:N581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -25622,6 +25622,50 @@
       </c>
       <c r="N580">
         <v>262706.184</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14">
+      <c r="A581" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B581">
+        <v>46043.222</v>
+      </c>
+      <c r="C581">
+        <v>1258.681</v>
+      </c>
+      <c r="D581">
+        <v>108185.619</v>
+      </c>
+      <c r="E581">
+        <v>158.729</v>
+      </c>
+      <c r="F581">
+        <v>64337.97</v>
+      </c>
+      <c r="G581">
+        <v>-366.733</v>
+      </c>
+      <c r="H581">
+        <v>29339.937</v>
+      </c>
+      <c r="I581">
+        <v>962.608</v>
+      </c>
+      <c r="J581">
+        <v>1318.71</v>
+      </c>
+      <c r="K581">
+        <v>1381.921</v>
+      </c>
+      <c r="L581">
+        <v>9655.688</v>
+      </c>
+      <c r="M581">
+        <v>28155.276</v>
+      </c>
+      <c r="N581">
+        <v>291061.104</v>
       </c>
     </row>
   </sheetData>
